--- a/Patricia_Demo/src/data/inputData.xlsx
+++ b/Patricia_Demo/src/data/inputData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Variable Name</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>P1269US00</t>
+  </si>
+  <si>
+    <t>P1273US00</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1114,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="35.1428571428571" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.5714285714286" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="28.7142857142857" collapsed="false"/>
-    <col min="4" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="35.1428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="28.7142857142857" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1314,7 +1317,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
